--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaochen88\Documents\GitHub\lee_county_SIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECF98D1-8258-4415-9BB1-B4E2BE333C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72D5441-7647-44B7-84A2-6573B1C97474}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
   <si>
     <t>release</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>trap_location</t>
   </si>
 </sst>
 </file>
@@ -373,15 +376,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,8 +403,11 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -415,7 +424,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -432,7 +441,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -449,7 +458,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -466,7 +475,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -483,7 +492,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +509,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -517,7 +526,7 @@
         <v>7273</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -534,7 +543,7 @@
         <v>7273</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -551,7 +560,7 @@
         <v>7273</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -568,7 +577,7 @@
         <v>7273</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -585,7 +594,7 @@
         <v>7273</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -602,7 +611,7 @@
         <v>7273</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -619,7 +628,7 @@
         <v>7273</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -636,7 +645,7 @@
         <v>7273</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
